--- a/data/achievement.xlsx
+++ b/data/achievement.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A7291A-D8DA-4361-B3AC-61104311F061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AAC15-664F-426D-8674-7964E8F2D586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="achievement" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="504">
   <si>
     <t>$id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[10409]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>悟出天道</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -206,10 +202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(EVT?[10409])&amp;(EVT?[20409])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>转世后飞升</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1493,10 +1485,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[11468,11469]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>遇到时光倒流</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1554,10 +1542,6 @@
   </si>
   <si>
     <t>(AEVT?[10644])&amp;(AEVT?[10732,10299])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(ATLT?[1023])&amp;(ATLT?[1048])&amp;(ATLT?[1064])&amp;(ATLT?[1114])</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1868,14 +1852,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SUM&gt;3000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总评超过3000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>传奇人物</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1888,14 +1864,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SUM&gt;6000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总评超过6000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>虫洞</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1928,35 +1896,187 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>撕裂世界之壁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[40040]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎虚空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无上存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总评小于0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不祥之胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总评超过10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM&gt;10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总评超过4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM&gt;4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10409,40050])&amp;(EVT?[20409])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10409,40050]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到羽化境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[40050]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏入凡尘期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到星尘境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千世</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[40056]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[40058]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[40061]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到自己留下的法门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前前前世</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下某个按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[21315]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关我啥事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开一家二次元公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现梦想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[11176]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫁衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>你是我的了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>撕裂世界之壁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[40040]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>破碎虚空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无上存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUM&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总评小于0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不祥之胎</t>
+    <t>夺舍成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[40083,40084]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孽魂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被炼进魂幡里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[40070]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[11468,11469,20390]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ATLT?[1023])&amp;(ATLT?[1048])&amp;(ATLT?[1064])&amp;(ATLT?[1114])&amp;(ATLT?[1135])&amp;(ATLT?[1141])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有会员，所以急着投胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(TLT?[1122])&amp;(TLT?[1141])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薅羊毛专家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上当了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[1136]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太贪婪而被骗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2344,11 +2464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B155" sqref="B155"/>
+      <pane ySplit="2" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
@@ -2379,13 +2499,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2405,13 +2525,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2438,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2446,7 +2566,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
@@ -2461,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2484,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2492,7 +2612,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -2507,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2524,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2547,13 +2667,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2570,13 +2690,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2593,13 +2713,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2616,13 +2736,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>470</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2630,22 +2750,22 @@
         <v>110</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2653,22 +2773,22 @@
         <v>111</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5">
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>35</v>
+        <v>469</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2676,22 +2796,22 @@
         <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5">
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2699,22 +2819,22 @@
         <v>113</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2722,22 +2842,22 @@
         <v>114</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2745,22 +2865,22 @@
         <v>115</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2771,19 +2891,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2791,22 +2911,22 @@
         <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2814,22 +2934,22 @@
         <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2837,22 +2957,22 @@
         <v>119</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2860,22 +2980,22 @@
         <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="5">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2883,22 +3003,22 @@
         <v>121</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F23" s="5">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2906,22 +3026,22 @@
         <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2929,22 +3049,22 @@
         <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2952,22 +3072,22 @@
         <v>124</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2975,22 +3095,22 @@
         <v>125</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F27" s="5">
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2998,22 +3118,22 @@
         <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3021,22 +3141,22 @@
         <v>127</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="5">
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F29" s="5">
         <v>0</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3044,22 +3164,22 @@
         <v>128</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="5">
         <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F30" s="5">
         <v>0</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3067,22 +3187,22 @@
         <v>129</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D31" s="5">
         <v>3</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3090,22 +3210,22 @@
         <v>130</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="5">
         <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F32" s="5">
         <v>0</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3113,22 +3233,22 @@
         <v>131</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="F33" s="5">
         <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3136,22 +3256,22 @@
         <v>132</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="F34" s="5">
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3159,22 +3279,22 @@
         <v>133</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F35" s="5">
         <v>0</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3182,22 +3302,22 @@
         <v>134</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F36" s="5">
         <v>0</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3205,22 +3325,22 @@
         <v>135</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3228,22 +3348,22 @@
         <v>136</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" s="5">
         <v>0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3251,22 +3371,22 @@
         <v>137</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D39" s="5">
         <v>0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F39" s="5">
         <v>0</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3274,22 +3394,22 @@
         <v>138</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="5">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="F40" s="5">
         <v>0</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3297,22 +3417,22 @@
         <v>139</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D41" s="5">
         <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F41" s="5">
         <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3320,22 +3440,22 @@
         <v>140</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F42" s="5">
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3343,22 +3463,22 @@
         <v>141</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3366,22 +3486,22 @@
         <v>142</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="5">
-        <v>0</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="F44" s="5">
         <v>0</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3389,22 +3509,22 @@
         <v>143</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" s="5">
         <v>0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F45" s="5">
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3412,22 +3532,22 @@
         <v>144</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="5">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="F46" s="5">
         <v>0</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3435,22 +3555,22 @@
         <v>145</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D47" s="5">
         <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3458,22 +3578,22 @@
         <v>146</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3481,22 +3601,22 @@
         <v>147</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D49" s="5">
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F49" s="5">
         <v>0</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3504,22 +3624,22 @@
         <v>148</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D50" s="5">
         <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F50" s="5">
         <v>1</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3527,22 +3647,22 @@
         <v>149</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3550,22 +3670,22 @@
         <v>150</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D52" s="5">
         <v>0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3573,22 +3693,22 @@
         <v>151</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D53" s="5">
         <v>0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3596,22 +3716,22 @@
         <v>152</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3619,22 +3739,22 @@
         <v>153</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D55" s="5">
         <v>0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F55" s="5">
         <v>0</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3642,22 +3762,22 @@
         <v>154</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="5">
-        <v>0</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="F56" s="5">
         <v>0</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3665,22 +3785,22 @@
         <v>155</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F57" s="5">
         <v>0</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3688,22 +3808,22 @@
         <v>156</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D58" s="5">
         <v>0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F58" s="5">
         <v>0</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3711,22 +3831,22 @@
         <v>157</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F59" s="5">
         <v>0</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3734,22 +3854,22 @@
         <v>158</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3757,22 +3877,22 @@
         <v>159</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D61" s="5">
         <v>2</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F61" s="5">
         <v>1</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3780,22 +3900,22 @@
         <v>160</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D62" s="5">
         <v>2</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F62" s="5">
         <v>1</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3803,22 +3923,22 @@
         <v>161</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D63" s="5">
         <v>0</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F63" s="5">
         <v>0</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3826,22 +3946,22 @@
         <v>162</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D64" s="5">
         <v>2</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F64" s="5">
         <v>0</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3849,22 +3969,22 @@
         <v>163</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D65" s="5">
         <v>1</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F65" s="5">
         <v>0</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3872,22 +3992,22 @@
         <v>164</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D66" s="5">
         <v>0</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F66" s="5">
         <v>0</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3895,22 +4015,22 @@
         <v>165</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D67" s="5">
         <v>0</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F67" s="5">
         <v>0</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3918,22 +4038,22 @@
         <v>166</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D68" s="5">
-        <v>1</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="F68" s="5">
         <v>1</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3941,22 +4061,22 @@
         <v>167</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="D69" s="5">
         <v>2</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F69" s="5">
         <v>0</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3964,22 +4084,22 @@
         <v>168</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="D70" s="5">
         <v>3</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F70" s="5">
         <v>0</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3987,22 +4107,22 @@
         <v>169</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D71" s="5">
         <v>0</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F71" s="5">
         <v>0</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4010,22 +4130,22 @@
         <v>170</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D72" s="5">
         <v>0</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F72" s="5">
         <v>0</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4033,22 +4153,22 @@
         <v>171</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D73" s="5">
         <v>1</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4056,22 +4176,22 @@
         <v>172</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="D74" s="5">
         <v>0</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F74" s="5">
         <v>0</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4079,22 +4199,22 @@
         <v>173</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D75" s="5">
-        <v>1</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="F75" s="5">
         <v>0</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4102,22 +4222,22 @@
         <v>174</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D76" s="5">
         <v>0</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F76" s="5">
         <v>0</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4125,22 +4245,22 @@
         <v>175</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D77" s="5">
         <v>1</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F77" s="5">
         <v>0</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4148,22 +4268,22 @@
         <v>176</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F78" s="5">
         <v>0</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4171,22 +4291,22 @@
         <v>177</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D79" s="5">
         <v>0</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F79" s="5">
         <v>0</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4194,22 +4314,22 @@
         <v>178</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D80" s="5">
         <v>1</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F80" s="5">
         <v>0</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4217,22 +4337,22 @@
         <v>179</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D81" s="5">
-        <v>1</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="F81" s="5">
         <v>0</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4240,22 +4360,22 @@
         <v>180</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D82" s="5">
-        <v>1</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="F82" s="5">
         <v>0</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4263,22 +4383,22 @@
         <v>181</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D83" s="5">
         <v>0</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F83" s="5">
         <v>0</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4286,22 +4406,22 @@
         <v>182</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D84" s="5">
         <v>2</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F84" s="5">
         <v>0</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4309,22 +4429,22 @@
         <v>183</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D85" s="5">
         <v>1</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F85" s="5">
         <v>0</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4332,22 +4452,22 @@
         <v>184</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F86" s="5">
         <v>0</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4355,22 +4475,22 @@
         <v>185</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D87" s="5">
         <v>0</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F87" s="5">
         <v>0</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4378,22 +4498,22 @@
         <v>186</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D88" s="5">
         <v>1</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4401,22 +4521,22 @@
         <v>187</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D89" s="5">
         <v>2</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4424,22 +4544,22 @@
         <v>188</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D90" s="5">
         <v>3</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F90" s="5">
         <v>1</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4447,22 +4567,22 @@
         <v>189</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D91" s="5">
-        <v>1</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="F91" s="5">
         <v>0</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4470,22 +4590,22 @@
         <v>190</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="D92" s="5">
         <v>1</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F92" s="5">
         <v>1</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4493,22 +4613,22 @@
         <v>191</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D93" s="5">
         <v>1</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F93" s="5">
         <v>1</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4516,22 +4636,22 @@
         <v>192</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D94" s="5">
         <v>0</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F94" s="5">
         <v>0</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4539,22 +4659,22 @@
         <v>193</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D95" s="5">
         <v>1</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F95" s="5">
         <v>0</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4562,22 +4682,22 @@
         <v>194</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D96" s="5">
         <v>1</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F96" s="5">
         <v>0</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4585,22 +4705,22 @@
         <v>195</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C97" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0</v>
+      </c>
+      <c r="E97" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D97" s="5">
-        <v>0</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="F97" s="5">
         <v>0</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4608,22 +4728,22 @@
         <v>196</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D98" s="5">
         <v>0</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F98" s="5">
         <v>0</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4631,22 +4751,22 @@
         <v>197</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D99" s="5">
-        <v>1</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="F99" s="5">
         <v>1</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4654,22 +4774,22 @@
         <v>198</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C100" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D100" s="5">
-        <v>1</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="F100" s="5">
         <v>1</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4677,22 +4797,22 @@
         <v>199</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D101" s="5">
         <v>0</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4700,22 +4820,22 @@
         <v>200</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D102" s="5">
-        <v>0</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>284</v>
-      </c>
       <c r="F102" s="5">
         <v>0</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4723,22 +4843,22 @@
         <v>201</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D103" s="5">
         <v>2</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F103" s="5">
         <v>0</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4746,22 +4866,22 @@
         <v>202</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="5">
         <v>1</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F104" s="5">
         <v>0</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4769,22 +4889,22 @@
         <v>203</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F105" s="5">
         <v>1</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4792,22 +4912,22 @@
         <v>204</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D106" s="5">
         <v>0</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F106" s="5">
         <v>0</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4815,22 +4935,22 @@
         <v>205</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D107" s="5">
         <v>2</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F107" s="5">
         <v>0</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4838,22 +4958,22 @@
         <v>206</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D108" s="5">
         <v>0</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F108" s="5">
         <v>0</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4861,22 +4981,22 @@
         <v>207</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D109" s="5">
         <v>0</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F109" s="5">
         <v>0</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4884,22 +5004,22 @@
         <v>208</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D110" s="5">
         <v>0</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F110" s="5">
         <v>0</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4907,22 +5027,22 @@
         <v>209</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D111" s="5">
         <v>0</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F111" s="5">
         <v>0</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4930,22 +5050,22 @@
         <v>210</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D112" s="5">
         <v>0</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F112" s="5">
         <v>0</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4953,22 +5073,22 @@
         <v>211</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D113" s="5">
         <v>0</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4976,22 +5096,22 @@
         <v>212</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D114" s="5">
         <v>0</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4999,22 +5119,22 @@
         <v>213</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D115" s="5">
         <v>1</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F115" s="5">
         <v>0</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5022,22 +5142,22 @@
         <v>214</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D116" s="5">
         <v>0</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5045,22 +5165,22 @@
         <v>215</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D117" s="5">
         <v>0</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F117" s="5">
         <v>1</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5068,22 +5188,22 @@
         <v>216</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D118" s="5">
         <v>0</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F118" s="5">
         <v>0</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5091,22 +5211,22 @@
         <v>217</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D119" s="5">
         <v>0</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F119" s="5">
         <v>0</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5114,22 +5234,22 @@
         <v>218</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D120" s="5">
         <v>0</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F120" s="5">
         <v>0</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5137,22 +5257,22 @@
         <v>219</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D121" s="5">
         <v>3</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>374</v>
+        <v>497</v>
       </c>
       <c r="F121" s="5">
         <v>0</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5160,22 +5280,22 @@
         <v>220</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D122" s="5">
         <v>1</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F122" s="5">
         <v>0</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5183,22 +5303,22 @@
         <v>221</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D123" s="5">
         <v>1</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F123" s="5">
         <v>0</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5206,22 +5326,22 @@
         <v>222</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D124" s="5">
         <v>0</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F124" s="5">
         <v>0</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5229,22 +5349,22 @@
         <v>223</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D125" s="5">
         <v>0</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F125" s="5">
         <v>0</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5252,22 +5372,22 @@
         <v>224</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D126" s="5">
         <v>2</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F126" s="5">
         <v>0</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5275,22 +5395,22 @@
         <v>225</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D127" s="5">
         <v>1</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>358</v>
+        <v>496</v>
       </c>
       <c r="F127" s="5">
         <v>0</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5298,22 +5418,22 @@
         <v>226</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D128" s="5">
         <v>2</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F128" s="5">
         <v>1</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5321,22 +5441,22 @@
         <v>227</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D129" s="5">
         <v>1</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F129" s="5">
         <v>1</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5344,22 +5464,22 @@
         <v>228</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D130" s="5">
         <v>1</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F130" s="5">
         <v>0</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5367,22 +5487,22 @@
         <v>229</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D131" s="5">
         <v>2</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F131" s="5">
         <v>0</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5390,22 +5510,22 @@
         <v>230</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D132" s="5">
         <v>1</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F132" s="5">
         <v>0</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5413,22 +5533,22 @@
         <v>231</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D133" s="5">
         <v>0</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F133" s="5">
         <v>0</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5436,22 +5556,22 @@
         <v>232</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D134" s="5">
         <v>0</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F134" s="5">
         <v>0</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5459,22 +5579,22 @@
         <v>233</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D135" s="5">
         <v>0</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F135" s="5">
         <v>0</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5482,22 +5602,22 @@
         <v>234</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D136" s="5">
         <v>0</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F136" s="5">
         <v>0</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5505,22 +5625,22 @@
         <v>235</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D137" s="5">
         <v>0</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5528,22 +5648,22 @@
         <v>236</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D138" s="5">
         <v>0</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F138" s="5">
         <v>0</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5551,22 +5671,22 @@
         <v>237</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D139" s="5">
         <v>0</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F139" s="5">
         <v>0</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5574,22 +5694,22 @@
         <v>238</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D140" s="5">
         <v>1</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F140" s="5">
         <v>0</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5597,22 +5717,22 @@
         <v>239</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D141" s="5">
         <v>1</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F141" s="5">
         <v>0</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5620,22 +5740,22 @@
         <v>240</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D142" s="5">
         <v>1</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F142" s="5">
         <v>0</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5643,22 +5763,22 @@
         <v>241</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D143" s="5">
         <v>1</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F143" s="5">
         <v>0</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5666,22 +5786,22 @@
         <v>242</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D144" s="5">
         <v>1</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F144" s="5">
         <v>0</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5689,22 +5809,22 @@
         <v>243</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D145" s="5">
         <v>0</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F145" s="5">
         <v>0</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5712,22 +5832,22 @@
         <v>244</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D146" s="5">
         <v>0</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F146" s="5">
         <v>0</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5735,22 +5855,22 @@
         <v>245</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D147" s="5">
         <v>0</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F147" s="5">
         <v>0</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5758,22 +5878,22 @@
         <v>246</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D148" s="5">
         <v>1</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F148" s="5">
         <v>0</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5781,22 +5901,22 @@
         <v>247</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D149" s="5">
         <v>2</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="F149" s="5">
         <v>1</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5804,22 +5924,22 @@
         <v>248</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D150" s="5">
         <v>3</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="F150" s="5">
         <v>1</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5827,22 +5947,22 @@
         <v>249</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D151" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F151" s="5">
         <v>1</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5850,22 +5970,22 @@
         <v>250</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D152" s="5">
         <v>1</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F152" s="5">
         <v>1</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5873,22 +5993,22 @@
         <v>251</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D153" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F153" s="5">
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5896,29 +6016,259 @@
         <v>252</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D154" s="5">
         <v>2</v>
       </c>
       <c r="E154" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F154" s="5">
+        <v>0</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="5">
+        <v>253</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="F154" s="5">
-        <v>0</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E155" s="5"/>
+      <c r="C155" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D155" s="5">
+        <v>3</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F155" s="5">
+        <v>1</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="156" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E156" s="5"/>
+      <c r="A156" s="5">
+        <v>254</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D156" s="5">
+        <v>2</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F156" s="5">
+        <v>1</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
+        <v>255</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D157" s="5">
+        <v>3</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F157" s="5">
+        <v>1</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="5">
+        <v>256</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D158" s="5">
+        <v>3</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F158" s="5">
+        <v>1</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
+        <v>257</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D159" s="5">
+        <v>0</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F159" s="5">
+        <v>0</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
+        <v>258</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D160" s="5">
+        <v>1</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F160" s="5">
+        <v>0</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
+        <v>259</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D161" s="5">
+        <v>2</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F161" s="5">
+        <v>1</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
+        <v>260</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D162" s="5">
+        <v>1</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F162" s="5">
+        <v>1</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <v>261</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D163" s="5">
+        <v>2</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F163" s="5">
+        <v>0</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
+        <v>262</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D164" s="5">
+        <v>0</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F164" s="5">
+        <v>1</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E165" s="5"/>
+    </row>
+    <row r="166" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E166" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
